--- a/Workspace01/Memoria.xlsx
+++ b/Workspace01/Memoria.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="423">
   <si>
     <t>Tamaño Nombre</t>
   </si>
@@ -850,6 +850,24 @@
   </si>
   <si>
     <t>NUMERO DE COPIAS</t>
+  </si>
+  <si>
+    <t>Venta Dinero c</t>
+  </si>
+  <si>
+    <t>Venta Volumen c</t>
+  </si>
+  <si>
+    <t>Venta PPU c</t>
+  </si>
+  <si>
+    <t>Venta Dinero D</t>
+  </si>
+  <si>
+    <t>Venta Volumen D</t>
+  </si>
+  <si>
+    <t>Venta PPU D</t>
   </si>
   <si>
     <t>Seriales Fisicos</t>
@@ -1593,42 +1611,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG68"/>
+  <dimension ref="A1:AG74"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.19897959183674"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.9030612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="5.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="1" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="3.97959183673469"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="4.67857142857143"/>
-    <col collapsed="false" hidden="false" max="17" min="13" style="1" width="4.95918367346939"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="5.63265306122449"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="5.5"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="1" width="4.6530612244898"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="5.20918367346939"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="4.22959183673469"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="4.51020408163265"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="4.78571428571429"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="4.6530612244898"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="4.78571428571429"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="3.94387755102041"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="4.6530612244898"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="4.93367346938776"/>
-    <col collapsed="false" hidden="false" max="33" min="32" style="1" width="4.36224489795918"/>
-    <col collapsed="false" hidden="false" max="73" min="34" style="1" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="2" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="75" style="2" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.09183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.10204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="5.24489795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="17" min="13" style="1" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="5.26530612244898"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="1" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="28" min="26" style="1" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="33" min="32" style="1" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="73" min="34" style="1" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="2" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="75" style="2" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,7 +5230,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="n">
-        <v>1152</v>
+        <v>1500</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>269</v>
@@ -5273,6 +5290,238 @@
       <c r="I68" s="12"/>
       <c r="J68" s="0"/>
       <c r="K68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="n">
+        <v>1512</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K69" s="0"/>
+      <c r="L69" s="0"/>
+      <c r="M69" s="0"/>
+      <c r="N69" s="0"/>
+      <c r="O69" s="0"/>
+      <c r="P69" s="0"/>
+      <c r="Q69" s="0"/>
+      <c r="R69" s="0"/>
+      <c r="S69" s="0"/>
+      <c r="T69" s="0"/>
+      <c r="U69" s="0"/>
+      <c r="V69" s="0"/>
+      <c r="W69" s="0"/>
+      <c r="X69" s="0"/>
+      <c r="Y69" s="0"/>
+      <c r="Z69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="n">
+        <v>1520</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K70" s="0"/>
+      <c r="L70" s="0"/>
+      <c r="M70" s="0"/>
+      <c r="N70" s="0"/>
+      <c r="O70" s="0"/>
+      <c r="P70" s="0"/>
+      <c r="Q70" s="0"/>
+      <c r="R70" s="0"/>
+      <c r="S70" s="0"/>
+      <c r="T70" s="0"/>
+      <c r="U70" s="0"/>
+      <c r="V70" s="0"/>
+      <c r="W70" s="0"/>
+      <c r="X70" s="0"/>
+      <c r="Y70" s="0"/>
+      <c r="Z70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="n">
+        <v>1528</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I71" s="0"/>
+      <c r="J71" s="0"/>
+      <c r="K71" s="0"/>
+      <c r="L71" s="0"/>
+      <c r="M71" s="0"/>
+      <c r="N71" s="0"/>
+      <c r="O71" s="0"/>
+      <c r="P71" s="0"/>
+      <c r="Q71" s="0"/>
+      <c r="R71" s="0"/>
+      <c r="S71" s="0"/>
+      <c r="T71" s="0"/>
+      <c r="U71" s="0"/>
+      <c r="V71" s="0"/>
+      <c r="W71" s="0"/>
+      <c r="X71" s="0"/>
+      <c r="Y71" s="0"/>
+      <c r="Z71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="n">
+        <v>1534</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="n">
+        <v>1542</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="n">
+        <v>1550</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I74" s="0"/>
+      <c r="J74" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5298,33 +5547,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5332,10 +5581,10 @@
         <v>77011132700.13</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D2" s="18" t="n">
         <v>18925346</v>
@@ -5348,10 +5597,10 @@
         <v>77011132700.23</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D3" s="18" t="n">
         <v>18925346</v>
@@ -5364,17 +5613,17 @@
         <v>77011132700.33</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D4" s="18" t="n">
         <v>18925346</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="19" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5382,10 +5631,10 @@
         <v>77011132700.43</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D5" s="18" t="n">
         <v>18925346</v>
@@ -5398,10 +5647,10 @@
         <v>77011132700.53</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D6" s="18" t="n">
         <v>18925346</v>
@@ -5414,10 +5663,10 @@
         <v>77011132700.63</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D7" s="18" t="n">
         <v>18925110</v>
@@ -5430,10 +5679,10 @@
         <v>77011132700.73</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D8" s="18" t="n">
         <v>18925110</v>
@@ -5446,10 +5695,10 @@
         <v>77011132700.93</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D9" s="18" t="n">
         <v>18925210</v>
@@ -5462,10 +5711,10 @@
         <v>77011132700.83</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D10" s="18" t="n">
         <v>18925110</v>
@@ -5478,10 +5727,10 @@
         <v>77011132701.03</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D11" s="18" t="n">
         <v>18925110</v>
@@ -5494,10 +5743,10 @@
         <v>77011132800.13</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D12" s="18" t="n">
         <v>18925325</v>
@@ -5510,10 +5759,10 @@
         <v>77011132701.34</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D13" s="18" t="n">
         <v>18928694</v>
@@ -5526,10 +5775,10 @@
         <v>77011132701.44</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D14" s="18" t="n">
         <v>18928695</v>
@@ -5542,10 +5791,10 @@
         <v>77011132701.14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D15" s="18" t="n">
         <v>18928696</v>
@@ -5558,10 +5807,10 @@
         <v>77011132701.24</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D16" s="18" t="n">
         <v>18928697</v>
@@ -5574,10 +5823,10 @@
         <v>77011132701.34</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D17" s="18" t="n">
         <v>18928698</v>
@@ -5590,10 +5839,10 @@
         <v>77011132701.74</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D18" s="18" t="n">
         <v>18928699</v>
@@ -5606,10 +5855,10 @@
         <v>77011132701.64</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>18928700</v>
@@ -5622,10 +5871,10 @@
         <v>77011132701.54</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>18928701</v>
@@ -5638,10 +5887,10 @@
         <v>77011132701.94</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>18928702</v>
@@ -5654,10 +5903,10 @@
         <v>77011132701.84</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>18928703</v>
@@ -5670,13 +5919,13 @@
         <v>77011132900.53</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="19" t="n">
@@ -5688,13 +5937,13 @@
         <v>77011132900.43</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="19" t="n">
@@ -5706,13 +5955,13 @@
         <v>77011132900.23</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="19" t="n">
@@ -5724,13 +5973,13 @@
         <v>77011132900.73</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="19" t="n">
@@ -5742,10 +5991,10 @@
         <v>77011132702.14</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D27" s="18" t="n">
         <v>18928703</v>
@@ -5758,10 +6007,10 @@
         <v>77011132702.34</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D28" s="18" t="n">
         <v>18928804</v>
@@ -5774,10 +6023,10 @@
         <v>77011132702.24</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D29" s="18" t="n">
         <v>18928815</v>
@@ -5790,10 +6039,10 @@
         <v>77011132702.04</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D30" s="18" t="n">
         <v>18928826</v>
@@ -5806,10 +6055,10 @@
         <v>77011132702.44</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D31" s="18" t="n">
         <v>18928927</v>
@@ -5822,10 +6071,10 @@
         <v>77011132900.53</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D32" s="18" t="n">
         <v>18927928</v>
@@ -5838,10 +6087,10 @@
         <v>77011132900.33</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D33" s="18" t="n">
         <v>18927929</v>
@@ -5854,10 +6103,10 @@
         <v>77011132900.63</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D34" s="18" t="n">
         <v>18927930</v>
@@ -5870,10 +6119,10 @@
         <v>77011132800.13</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D35" s="18" t="n">
         <v>18927931</v>
@@ -5886,10 +6135,10 @@
         <v>77012132700.12</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D36" s="18" t="n">
         <v>18927932</v>
@@ -5902,10 +6151,10 @@
         <v>77012132700.22</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D37" s="18" t="n">
         <v>18927933</v>
@@ -5918,10 +6167,10 @@
         <v>77012132700.32</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D38" s="18" t="n">
         <v>18927934</v>
@@ -5934,10 +6183,10 @@
         <v>77012132700.42</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D39" s="18" t="n">
         <v>18927935</v>
@@ -5950,10 +6199,10 @@
         <v>77012132700.11</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D40" s="18" t="n">
         <v>18927936</v>
@@ -5966,10 +6215,10 @@
         <v>77012132700.21</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D41" s="18" t="n">
         <v>18927937</v>
@@ -5982,10 +6231,10 @@
         <v>77012132700.31</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D42" s="18" t="n">
         <v>18927938</v>
@@ -5998,10 +6247,10 @@
         <v>77012132700.41</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D43" s="18" t="n">
         <v>18927939</v>
@@ -6014,10 +6263,10 @@
         <v>77012132700.51</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D44" s="18" t="n">
         <v>18927940</v>
@@ -6030,10 +6279,10 @@
         <v>77012132700.61</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D45" s="18" t="n">
         <v>18927941</v>
@@ -6046,10 +6295,10 @@
         <v>77012132700.71</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D46" s="18" t="n">
         <v>18927942</v>
@@ -6062,10 +6311,10 @@
         <v>77012132700.81</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D47" s="18" t="n">
         <v>18927943</v>
@@ -6078,10 +6327,10 @@
         <v>77012132700.91</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D48" s="18" t="n">
         <v>18927944</v>
@@ -6094,13 +6343,13 @@
         <v>77012132900.32</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="19" t="n">
@@ -6112,13 +6361,13 @@
         <v>77012132900.22</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="19" t="n">
@@ -6130,13 +6379,13 @@
         <v>77012132900.12</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="19" t="n">
@@ -6148,10 +6397,10 @@
         <v>77012132701.01</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D52" s="18" t="n">
         <v>18927945</v>
@@ -6164,10 +6413,10 @@
         <v>77012132701.11</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D53" s="18" t="n">
         <v>18927946</v>
@@ -6180,10 +6429,10 @@
         <v>77012132701.21</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D54" s="18" t="n">
         <v>18927947</v>
@@ -6196,10 +6445,10 @@
         <v>77012132701.31</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D55" s="18" t="n">
         <v>18927948</v>
@@ -6212,10 +6461,10 @@
         <v>77012132701.41</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D56" s="18" t="n">
         <v>18927949</v>
@@ -6228,10 +6477,10 @@
         <v>77012132701.51</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D57" s="18" t="n">
         <v>18927950</v>
@@ -6244,10 +6493,10 @@
         <v>77012132701.61</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D58" s="18" t="n">
         <v>18927951</v>
@@ -6260,10 +6509,10 @@
         <v>77012132701.71</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D59" s="18" t="n">
         <v>18927952</v>
@@ -6276,10 +6525,10 @@
         <v>77012132701.81</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D60" s="18" t="n">
         <v>18927953</v>
@@ -6292,10 +6541,10 @@
         <v>77012132701.91</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D61" s="18" t="n">
         <v>18927954</v>
@@ -6308,10 +6557,10 @@
         <v>77012132702.01</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D62" s="18" t="n">
         <v>18927955</v>
@@ -6324,10 +6573,10 @@
         <v>77012132702.11</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D63" s="18" t="n">
         <v>18927956</v>
@@ -6340,10 +6589,10 @@
         <v>77012132702.21</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D64" s="18" t="n">
         <v>18927957</v>
@@ -6356,10 +6605,10 @@
         <v>77012132702.31</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D65" s="18" t="n">
         <v>18927958</v>
@@ -6372,10 +6621,10 @@
         <v>77012132702.41</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D66" s="18" t="n">
         <v>18927959</v>
@@ -6388,10 +6637,10 @@
         <v>77012132702.51</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D67" s="18" t="n">
         <v>18927960</v>
@@ -6404,10 +6653,10 @@
         <v>77012132702.61</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D68" s="18" t="n">
         <v>18927961</v>
@@ -6420,10 +6669,10 @@
         <v>77012132702.71</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D69" s="18" t="n">
         <v>18927962</v>
@@ -6436,10 +6685,10 @@
         <v>77012132702.81</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D70" s="18" t="n">
         <v>18927963</v>
@@ -6452,10 +6701,10 @@
         <v>77012132702.91</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D71" s="18" t="n">
         <v>18927964</v>
@@ -6468,10 +6717,10 @@
         <v>77012132703.01</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D72" s="18" t="n">
         <v>18927965</v>
@@ -6484,10 +6733,10 @@
         <v>77012132703.11</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D73" s="18" t="n">
         <v>18927966</v>
@@ -6500,10 +6749,10 @@
         <v>77012132703.21</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D74" s="18" t="n">
         <v>18927967</v>
@@ -6516,10 +6765,10 @@
         <v>77012132703.31</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D75" s="18" t="n">
         <v>18927968</v>
@@ -6532,10 +6781,10 @@
         <v>77012132703.41</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D76" s="18" t="n">
         <v>18927969</v>
@@ -6548,10 +6797,10 @@
         <v>77012132703.51</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D77" s="18" t="n">
         <v>18927970</v>
@@ -6564,10 +6813,10 @@
         <v>77012132703.61</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D78" s="18" t="n">
         <v>18927971</v>
@@ -6580,10 +6829,10 @@
         <v>77012132703.71</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D79" s="18" t="n">
         <v>18927972</v>
@@ -6596,10 +6845,10 @@
         <v>77012132703.81</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D80" s="18" t="n">
         <v>18927973</v>
@@ -6612,10 +6861,10 @@
         <v>77012132703.91</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D81" s="18" t="n">
         <v>18927974</v>
@@ -6628,10 +6877,10 @@
         <v>77012132800.13</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D82" s="21" t="n">
         <v>18927975</v>
@@ -6644,10 +6893,10 @@
         <v>77012132800.23</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D83" s="21" t="n">
         <v>18927976</v>
@@ -6660,10 +6909,10 @@
         <v>77012132800.33</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D84" s="21" t="n">
         <v>18927977</v>
@@ -6676,10 +6925,10 @@
         <v>77012132800.43</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D85" s="21" t="n">
         <v>18927978</v>
@@ -6692,10 +6941,10 @@
         <v>77012132800.53</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D86" s="21" t="n">
         <v>18927979</v>
@@ -6708,10 +6957,10 @@
         <v>77012132800.63</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D87" s="21" t="n">
         <v>18927980</v>
@@ -6724,10 +6973,10 @@
         <v>77012132800.73</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D88" s="21" t="n">
         <v>18927981</v>
@@ -6740,10 +6989,10 @@
         <v>77012132800.83</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D89" s="21" t="n">
         <v>18927982</v>
@@ -6756,10 +7005,10 @@
         <v>77012132800.93</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D90" s="21" t="n">
         <v>18927983</v>
@@ -6772,10 +7021,10 @@
         <v>77012132801.03</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D91" s="21" t="n">
         <v>18927984</v>
@@ -6788,10 +7037,10 @@
         <v>77012132801.13</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D92" s="21" t="n">
         <v>18927985</v>
@@ -6804,10 +7053,10 @@
         <v>77012132704.01</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D93" s="21" t="n">
         <v>18927986</v>
@@ -6820,10 +7069,10 @@
         <v>77012132704.11</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D94" s="21" t="n">
         <v>18927987</v>
@@ -6836,10 +7085,10 @@
         <v>77012132704.21</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D95" s="21" t="n">
         <v>18927988</v>
@@ -6852,10 +7101,10 @@
         <v>77012132704.31</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D96" s="21" t="n">
         <v>18927989</v>
@@ -6868,10 +7117,10 @@
         <v>77012132704.41</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D97" s="21" t="n">
         <v>18927991</v>
@@ -6884,10 +7133,10 @@
         <v>77012132704.51</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D98" s="21" t="n">
         <v>18927990</v>
@@ -6900,10 +7149,10 @@
         <v>77012132704.61</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D99" s="21" t="n">
         <v>18927992</v>
@@ -6916,10 +7165,10 @@
         <v>77012132704.71</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D100" s="21" t="n">
         <v>18927993</v>
@@ -6932,10 +7181,10 @@
         <v>77012132704.81</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D101" s="21" t="n">
         <v>18927994</v>
@@ -6948,10 +7197,10 @@
         <v>77012132704.91</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D102" s="21" t="n">
         <v>18927995</v>
@@ -6964,10 +7213,10 @@
         <v>77012132705.01</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D103" s="21" t="n">
         <v>18927996</v>
@@ -6980,10 +7229,10 @@
         <v>77012132705.11</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D104" s="21" t="n">
         <v>18927997</v>
@@ -6996,10 +7245,10 @@
         <v>77012132705.21</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D105" s="21" t="n">
         <v>18927998</v>
@@ -7012,10 +7261,10 @@
         <v>77012132705.31</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D106" s="21" t="n">
         <v>18927999</v>
@@ -7028,10 +7277,10 @@
         <v>77012132705.41</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D107" s="21" t="n">
         <v>18928000</v>
@@ -7044,10 +7293,10 @@
         <v>77012132705.51</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D108" s="21" t="n">
         <v>18928001</v>
@@ -7060,10 +7309,10 @@
         <v>77012132705.61</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D109" s="21" t="n">
         <v>18928002</v>
@@ -7076,10 +7325,10 @@
         <v>77012132705.71</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D110" s="21" t="n">
         <v>18928003</v>
@@ -7092,10 +7341,10 @@
         <v>77012132705.81</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D111" s="21" t="n">
         <v>18928004</v>
@@ -7108,10 +7357,10 @@
         <v>77012132705.91</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D112" s="21" t="n">
         <v>18928005</v>
@@ -7124,13 +7373,13 @@
         <v>77012132900.13</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E113" s="19"/>
       <c r="F113" s="19"/>
@@ -7140,13 +7389,13 @@
         <v>77012132900.23</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E114" s="19"/>
       <c r="F114" s="19"/>
@@ -7156,13 +7405,13 @@
         <v>77012132900.33</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
@@ -7172,13 +7421,13 @@
         <v>77012132900.43</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
@@ -7188,13 +7437,13 @@
         <v>77012132900.53</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
@@ -7204,13 +7453,13 @@
         <v>77012132900.63</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E118" s="19"/>
       <c r="F118" s="19"/>
@@ -7220,13 +7469,13 @@
         <v>77012132900.73</v>
       </c>
       <c r="B119" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D119" s="23" t="s">
         <v>403</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="D119" s="23" t="s">
-        <v>397</v>
       </c>
       <c r="E119" s="19"/>
       <c r="F119" s="19"/>
@@ -7236,13 +7485,13 @@
         <v>77012132900.83</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" s="19"/>
@@ -7252,13 +7501,13 @@
         <v>77012132900.93</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E121" s="19"/>
       <c r="F121" s="19"/>
@@ -7268,13 +7517,13 @@
         <v>77012132901.03</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E122" s="19"/>
       <c r="F122" s="19"/>
@@ -7284,13 +7533,13 @@
         <v>77012132901.13</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
@@ -7300,13 +7549,13 @@
         <v>77012132901.23</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E124" s="19"/>
       <c r="F124" s="19"/>
@@ -7316,13 +7565,13 @@
         <v>77012132901.33</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E125" s="19"/>
       <c r="F125" s="19"/>
@@ -7332,13 +7581,13 @@
         <v>77012132901.43</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E126" s="19"/>
       <c r="F126" s="19"/>
@@ -7348,13 +7597,13 @@
         <v>77012132901.53</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" s="19"/>
@@ -7364,13 +7613,13 @@
         <v>77012132901.63</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
@@ -7380,13 +7629,13 @@
         <v>77012132901.73</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
@@ -7396,13 +7645,13 @@
         <v>77001142900.13</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E130" s="19"/>
       <c r="F130" s="19"/>
@@ -7412,13 +7661,13 @@
         <v>77001142900.23</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E131" s="19"/>
       <c r="F131" s="19"/>
@@ -7428,13 +7677,13 @@
         <v>77001142900.33</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E132" s="19"/>
       <c r="F132" s="19"/>
@@ -7527,7 +7776,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Workspace01/Memoria.xlsx
+++ b/Workspace01/Memoria.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="417">
   <si>
     <t>Tamaño Nombre</t>
   </si>
@@ -850,24 +850,6 @@
   </si>
   <si>
     <t>NUMERO DE COPIAS</t>
-  </si>
-  <si>
-    <t>Venta Dinero c</t>
-  </si>
-  <si>
-    <t>Venta Volumen c</t>
-  </si>
-  <si>
-    <t>Venta PPU c</t>
-  </si>
-  <si>
-    <t>Venta Dinero D</t>
-  </si>
-  <si>
-    <t>Venta Volumen D</t>
-  </si>
-  <si>
-    <t>Venta PPU D</t>
   </si>
   <si>
     <t>Seriales Fisicos</t>
@@ -1613,39 +1595,39 @@
   </sheetPr>
   <dimension ref="A1:AG74"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69:K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.95918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.09183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.10204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="5.24489795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.66836734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="4.86224489795918"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="17" min="13" style="1" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="5.39795918367347"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="1" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="28" min="26" style="1" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="33" min="32" style="1" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="17" min="13" style="1" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="5.26530612244898"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="1" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="28" min="26" style="1" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="33" min="32" style="1" width="4.18367346938776"/>
     <col collapsed="false" hidden="false" max="73" min="34" style="1" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="74" min="74" style="2" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="75" style="2" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="75" style="2" width="9.85204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5205,6 +5187,20 @@
       <c r="L64" s="12" t="s">
         <v>265</v>
       </c>
+      <c r="M64" s="0"/>
+      <c r="N64" s="0"/>
+      <c r="O64" s="0"/>
+      <c r="P64" s="0"/>
+      <c r="Q64" s="0"/>
+      <c r="R64" s="0"/>
+      <c r="S64" s="0"/>
+      <c r="T64" s="0"/>
+      <c r="U64" s="0"/>
+      <c r="V64" s="0"/>
+      <c r="W64" s="0"/>
+      <c r="X64" s="0"/>
+      <c r="Y64" s="0"/>
+      <c r="Z64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="n">
@@ -5227,6 +5223,20 @@
       <c r="L65" s="12" t="s">
         <v>268</v>
       </c>
+      <c r="M65" s="0"/>
+      <c r="N65" s="0"/>
+      <c r="O65" s="0"/>
+      <c r="P65" s="0"/>
+      <c r="Q65" s="0"/>
+      <c r="R65" s="0"/>
+      <c r="S65" s="0"/>
+      <c r="T65" s="0"/>
+      <c r="U65" s="0"/>
+      <c r="V65" s="0"/>
+      <c r="W65" s="0"/>
+      <c r="X65" s="0"/>
+      <c r="Y65" s="0"/>
+      <c r="Z65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="n">
@@ -5249,6 +5259,20 @@
       <c r="L66" s="12" t="s">
         <v>271</v>
       </c>
+      <c r="M66" s="0"/>
+      <c r="N66" s="0"/>
+      <c r="O66" s="0"/>
+      <c r="P66" s="0"/>
+      <c r="Q66" s="0"/>
+      <c r="R66" s="0"/>
+      <c r="S66" s="0"/>
+      <c r="T66" s="0"/>
+      <c r="U66" s="0"/>
+      <c r="V66" s="0"/>
+      <c r="W66" s="0"/>
+      <c r="X66" s="0"/>
+      <c r="Y66" s="0"/>
+      <c r="Z66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11" t="n">
@@ -5271,6 +5295,20 @@
       <c r="L67" s="12" t="s">
         <v>274</v>
       </c>
+      <c r="M67" s="0"/>
+      <c r="N67" s="0"/>
+      <c r="O67" s="0"/>
+      <c r="P67" s="0"/>
+      <c r="Q67" s="0"/>
+      <c r="R67" s="0"/>
+      <c r="S67" s="0"/>
+      <c r="T67" s="0"/>
+      <c r="U67" s="0"/>
+      <c r="V67" s="0"/>
+      <c r="W67" s="0"/>
+      <c r="X67" s="0"/>
+      <c r="Y67" s="0"/>
+      <c r="Z67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11" t="n">
@@ -5290,38 +5328,33 @@
       <c r="I68" s="12"/>
       <c r="J68" s="0"/>
       <c r="K68" s="0"/>
+      <c r="L68" s="0"/>
+      <c r="M68" s="0"/>
+      <c r="N68" s="0"/>
+      <c r="O68" s="0"/>
+      <c r="P68" s="0"/>
+      <c r="Q68" s="0"/>
+      <c r="R68" s="0"/>
+      <c r="S68" s="0"/>
+      <c r="T68" s="0"/>
+      <c r="U68" s="0"/>
+      <c r="V68" s="0"/>
+      <c r="W68" s="0"/>
+      <c r="X68" s="0"/>
+      <c r="Y68" s="0"/>
+      <c r="Z68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="n">
-        <v>1512</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
       <c r="K69" s="0"/>
       <c r="L69" s="0"/>
       <c r="M69" s="0"/>
@@ -5340,36 +5373,16 @@
       <c r="Z69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="n">
-        <v>1520</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>131</v>
-      </c>
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
       <c r="K70" s="0"/>
       <c r="L70" s="0"/>
       <c r="M70" s="0"/>
@@ -5388,30 +5401,14 @@
       <c r="Z70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="n">
-        <v>1528</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>183</v>
-      </c>
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
       <c r="I71" s="0"/>
       <c r="J71" s="0"/>
       <c r="K71" s="0"/>
@@ -5432,94 +5429,38 @@
       <c r="Z71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="n">
-        <v>1534</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
-        <v>1542</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>131</v>
-      </c>
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
-        <v>1550</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>183</v>
-      </c>
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
       <c r="I74" s="0"/>
       <c r="J74" s="0"/>
     </row>
@@ -5542,38 +5483,37 @@
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A133" activeCellId="0" sqref="A133"/>
+      <selection pane="topLeft" activeCell="A133" activeCellId="1" sqref="A69:K74 A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5581,10 +5521,10 @@
         <v>77011132700.13</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D2" s="18" t="n">
         <v>18925346</v>
@@ -5597,10 +5537,10 @@
         <v>77011132700.23</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D3" s="18" t="n">
         <v>18925346</v>
@@ -5613,17 +5553,17 @@
         <v>77011132700.33</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D4" s="18" t="n">
         <v>18925346</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5631,10 +5571,10 @@
         <v>77011132700.43</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D5" s="18" t="n">
         <v>18925346</v>
@@ -5647,10 +5587,10 @@
         <v>77011132700.53</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D6" s="18" t="n">
         <v>18925346</v>
@@ -5663,10 +5603,10 @@
         <v>77011132700.63</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D7" s="18" t="n">
         <v>18925110</v>
@@ -5679,10 +5619,10 @@
         <v>77011132700.73</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D8" s="18" t="n">
         <v>18925110</v>
@@ -5695,10 +5635,10 @@
         <v>77011132700.93</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D9" s="18" t="n">
         <v>18925210</v>
@@ -5711,10 +5651,10 @@
         <v>77011132700.83</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D10" s="18" t="n">
         <v>18925110</v>
@@ -5727,10 +5667,10 @@
         <v>77011132701.03</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D11" s="18" t="n">
         <v>18925110</v>
@@ -5743,10 +5683,10 @@
         <v>77011132800.13</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D12" s="18" t="n">
         <v>18925325</v>
@@ -5759,10 +5699,10 @@
         <v>77011132701.34</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D13" s="18" t="n">
         <v>18928694</v>
@@ -5775,10 +5715,10 @@
         <v>77011132701.44</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D14" s="18" t="n">
         <v>18928695</v>
@@ -5791,10 +5731,10 @@
         <v>77011132701.14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D15" s="18" t="n">
         <v>18928696</v>
@@ -5807,10 +5747,10 @@
         <v>77011132701.24</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D16" s="18" t="n">
         <v>18928697</v>
@@ -5823,10 +5763,10 @@
         <v>77011132701.34</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D17" s="18" t="n">
         <v>18928698</v>
@@ -5839,10 +5779,10 @@
         <v>77011132701.74</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D18" s="18" t="n">
         <v>18928699</v>
@@ -5855,10 +5795,10 @@
         <v>77011132701.64</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>18928700</v>
@@ -5871,10 +5811,10 @@
         <v>77011132701.54</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>18928701</v>
@@ -5887,10 +5827,10 @@
         <v>77011132701.94</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>18928702</v>
@@ -5903,10 +5843,10 @@
         <v>77011132701.84</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>18928703</v>
@@ -5919,13 +5859,13 @@
         <v>77011132900.53</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="19" t="n">
@@ -5937,13 +5877,13 @@
         <v>77011132900.43</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="19" t="n">
@@ -5955,13 +5895,13 @@
         <v>77011132900.23</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="19" t="n">
@@ -5973,13 +5913,13 @@
         <v>77011132900.73</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="19" t="n">
@@ -5991,10 +5931,10 @@
         <v>77011132702.14</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D27" s="18" t="n">
         <v>18928703</v>
@@ -6007,10 +5947,10 @@
         <v>77011132702.34</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D28" s="18" t="n">
         <v>18928804</v>
@@ -6023,10 +5963,10 @@
         <v>77011132702.24</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D29" s="18" t="n">
         <v>18928815</v>
@@ -6039,10 +5979,10 @@
         <v>77011132702.04</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D30" s="18" t="n">
         <v>18928826</v>
@@ -6055,10 +5995,10 @@
         <v>77011132702.44</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D31" s="18" t="n">
         <v>18928927</v>
@@ -6071,10 +6011,10 @@
         <v>77011132900.53</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D32" s="18" t="n">
         <v>18927928</v>
@@ -6087,10 +6027,10 @@
         <v>77011132900.33</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D33" s="18" t="n">
         <v>18927929</v>
@@ -6103,10 +6043,10 @@
         <v>77011132900.63</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D34" s="18" t="n">
         <v>18927930</v>
@@ -6119,10 +6059,10 @@
         <v>77011132800.13</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D35" s="18" t="n">
         <v>18927931</v>
@@ -6135,10 +6075,10 @@
         <v>77012132700.12</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D36" s="18" t="n">
         <v>18927932</v>
@@ -6151,10 +6091,10 @@
         <v>77012132700.22</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D37" s="18" t="n">
         <v>18927933</v>
@@ -6167,10 +6107,10 @@
         <v>77012132700.32</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D38" s="18" t="n">
         <v>18927934</v>
@@ -6183,10 +6123,10 @@
         <v>77012132700.42</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D39" s="18" t="n">
         <v>18927935</v>
@@ -6199,10 +6139,10 @@
         <v>77012132700.11</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D40" s="18" t="n">
         <v>18927936</v>
@@ -6215,10 +6155,10 @@
         <v>77012132700.21</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D41" s="18" t="n">
         <v>18927937</v>
@@ -6231,10 +6171,10 @@
         <v>77012132700.31</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D42" s="18" t="n">
         <v>18927938</v>
@@ -6247,10 +6187,10 @@
         <v>77012132700.41</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D43" s="18" t="n">
         <v>18927939</v>
@@ -6263,10 +6203,10 @@
         <v>77012132700.51</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D44" s="18" t="n">
         <v>18927940</v>
@@ -6279,10 +6219,10 @@
         <v>77012132700.61</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D45" s="18" t="n">
         <v>18927941</v>
@@ -6295,10 +6235,10 @@
         <v>77012132700.71</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D46" s="18" t="n">
         <v>18927942</v>
@@ -6311,10 +6251,10 @@
         <v>77012132700.81</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D47" s="18" t="n">
         <v>18927943</v>
@@ -6327,10 +6267,10 @@
         <v>77012132700.91</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D48" s="18" t="n">
         <v>18927944</v>
@@ -6343,13 +6283,13 @@
         <v>77012132900.32</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="19" t="n">
@@ -6361,13 +6301,13 @@
         <v>77012132900.22</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="19" t="n">
@@ -6379,13 +6319,13 @@
         <v>77012132900.12</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="19" t="n">
@@ -6397,10 +6337,10 @@
         <v>77012132701.01</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D52" s="18" t="n">
         <v>18927945</v>
@@ -6413,10 +6353,10 @@
         <v>77012132701.11</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D53" s="18" t="n">
         <v>18927946</v>
@@ -6429,10 +6369,10 @@
         <v>77012132701.21</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D54" s="18" t="n">
         <v>18927947</v>
@@ -6445,10 +6385,10 @@
         <v>77012132701.31</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D55" s="18" t="n">
         <v>18927948</v>
@@ -6461,10 +6401,10 @@
         <v>77012132701.41</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D56" s="18" t="n">
         <v>18927949</v>
@@ -6477,10 +6417,10 @@
         <v>77012132701.51</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D57" s="18" t="n">
         <v>18927950</v>
@@ -6493,10 +6433,10 @@
         <v>77012132701.61</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D58" s="18" t="n">
         <v>18927951</v>
@@ -6509,10 +6449,10 @@
         <v>77012132701.71</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D59" s="18" t="n">
         <v>18927952</v>
@@ -6525,10 +6465,10 @@
         <v>77012132701.81</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D60" s="18" t="n">
         <v>18927953</v>
@@ -6541,10 +6481,10 @@
         <v>77012132701.91</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D61" s="18" t="n">
         <v>18927954</v>
@@ -6557,10 +6497,10 @@
         <v>77012132702.01</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D62" s="18" t="n">
         <v>18927955</v>
@@ -6573,10 +6513,10 @@
         <v>77012132702.11</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D63" s="18" t="n">
         <v>18927956</v>
@@ -6589,10 +6529,10 @@
         <v>77012132702.21</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D64" s="18" t="n">
         <v>18927957</v>
@@ -6605,10 +6545,10 @@
         <v>77012132702.31</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D65" s="18" t="n">
         <v>18927958</v>
@@ -6621,10 +6561,10 @@
         <v>77012132702.41</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D66" s="18" t="n">
         <v>18927959</v>
@@ -6637,10 +6577,10 @@
         <v>77012132702.51</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D67" s="18" t="n">
         <v>18927960</v>
@@ -6653,10 +6593,10 @@
         <v>77012132702.61</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D68" s="18" t="n">
         <v>18927961</v>
@@ -6669,10 +6609,10 @@
         <v>77012132702.71</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D69" s="18" t="n">
         <v>18927962</v>
@@ -6685,10 +6625,10 @@
         <v>77012132702.81</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D70" s="18" t="n">
         <v>18927963</v>
@@ -6701,10 +6641,10 @@
         <v>77012132702.91</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D71" s="18" t="n">
         <v>18927964</v>
@@ -6717,10 +6657,10 @@
         <v>77012132703.01</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D72" s="18" t="n">
         <v>18927965</v>
@@ -6733,10 +6673,10 @@
         <v>77012132703.11</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D73" s="18" t="n">
         <v>18927966</v>
@@ -6749,10 +6689,10 @@
         <v>77012132703.21</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D74" s="18" t="n">
         <v>18927967</v>
@@ -6765,10 +6705,10 @@
         <v>77012132703.31</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D75" s="18" t="n">
         <v>18927968</v>
@@ -6781,10 +6721,10 @@
         <v>77012132703.41</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D76" s="18" t="n">
         <v>18927969</v>
@@ -6797,10 +6737,10 @@
         <v>77012132703.51</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D77" s="18" t="n">
         <v>18927970</v>
@@ -6813,10 +6753,10 @@
         <v>77012132703.61</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D78" s="18" t="n">
         <v>18927971</v>
@@ -6829,10 +6769,10 @@
         <v>77012132703.71</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D79" s="18" t="n">
         <v>18927972</v>
@@ -6845,10 +6785,10 @@
         <v>77012132703.81</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D80" s="18" t="n">
         <v>18927973</v>
@@ -6861,10 +6801,10 @@
         <v>77012132703.91</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D81" s="18" t="n">
         <v>18927974</v>
@@ -6877,10 +6817,10 @@
         <v>77012132800.13</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D82" s="21" t="n">
         <v>18927975</v>
@@ -6893,10 +6833,10 @@
         <v>77012132800.23</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D83" s="21" t="n">
         <v>18927976</v>
@@ -6909,10 +6849,10 @@
         <v>77012132800.33</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D84" s="21" t="n">
         <v>18927977</v>
@@ -6925,10 +6865,10 @@
         <v>77012132800.43</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D85" s="21" t="n">
         <v>18927978</v>
@@ -6941,10 +6881,10 @@
         <v>77012132800.53</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D86" s="21" t="n">
         <v>18927979</v>
@@ -6957,10 +6897,10 @@
         <v>77012132800.63</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D87" s="21" t="n">
         <v>18927980</v>
@@ -6973,10 +6913,10 @@
         <v>77012132800.73</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D88" s="21" t="n">
         <v>18927981</v>
@@ -6989,10 +6929,10 @@
         <v>77012132800.83</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D89" s="21" t="n">
         <v>18927982</v>
@@ -7005,10 +6945,10 @@
         <v>77012132800.93</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D90" s="21" t="n">
         <v>18927983</v>
@@ -7021,10 +6961,10 @@
         <v>77012132801.03</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D91" s="21" t="n">
         <v>18927984</v>
@@ -7037,10 +6977,10 @@
         <v>77012132801.13</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D92" s="21" t="n">
         <v>18927985</v>
@@ -7053,10 +6993,10 @@
         <v>77012132704.01</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D93" s="21" t="n">
         <v>18927986</v>
@@ -7069,10 +7009,10 @@
         <v>77012132704.11</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D94" s="21" t="n">
         <v>18927987</v>
@@ -7085,10 +7025,10 @@
         <v>77012132704.21</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D95" s="21" t="n">
         <v>18927988</v>
@@ -7101,10 +7041,10 @@
         <v>77012132704.31</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D96" s="21" t="n">
         <v>18927989</v>
@@ -7117,10 +7057,10 @@
         <v>77012132704.41</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D97" s="21" t="n">
         <v>18927991</v>
@@ -7133,10 +7073,10 @@
         <v>77012132704.51</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D98" s="21" t="n">
         <v>18927990</v>
@@ -7149,10 +7089,10 @@
         <v>77012132704.61</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D99" s="21" t="n">
         <v>18927992</v>
@@ -7165,10 +7105,10 @@
         <v>77012132704.71</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D100" s="21" t="n">
         <v>18927993</v>
@@ -7181,10 +7121,10 @@
         <v>77012132704.81</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D101" s="21" t="n">
         <v>18927994</v>
@@ -7197,10 +7137,10 @@
         <v>77012132704.91</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D102" s="21" t="n">
         <v>18927995</v>
@@ -7213,10 +7153,10 @@
         <v>77012132705.01</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D103" s="21" t="n">
         <v>18927996</v>
@@ -7229,10 +7169,10 @@
         <v>77012132705.11</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D104" s="21" t="n">
         <v>18927997</v>
@@ -7245,10 +7185,10 @@
         <v>77012132705.21</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D105" s="21" t="n">
         <v>18927998</v>
@@ -7261,10 +7201,10 @@
         <v>77012132705.31</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D106" s="21" t="n">
         <v>18927999</v>
@@ -7277,10 +7217,10 @@
         <v>77012132705.41</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D107" s="21" t="n">
         <v>18928000</v>
@@ -7293,10 +7233,10 @@
         <v>77012132705.51</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D108" s="21" t="n">
         <v>18928001</v>
@@ -7309,10 +7249,10 @@
         <v>77012132705.61</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D109" s="21" t="n">
         <v>18928002</v>
@@ -7325,10 +7265,10 @@
         <v>77012132705.71</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D110" s="21" t="n">
         <v>18928003</v>
@@ -7341,10 +7281,10 @@
         <v>77012132705.81</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D111" s="21" t="n">
         <v>18928004</v>
@@ -7357,10 +7297,10 @@
         <v>77012132705.91</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D112" s="21" t="n">
         <v>18928005</v>
@@ -7373,13 +7313,13 @@
         <v>77012132900.13</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E113" s="19"/>
       <c r="F113" s="19"/>
@@ -7389,13 +7329,13 @@
         <v>77012132900.23</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E114" s="19"/>
       <c r="F114" s="19"/>
@@ -7405,13 +7345,13 @@
         <v>77012132900.33</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
@@ -7421,13 +7361,13 @@
         <v>77012132900.43</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
@@ -7437,13 +7377,13 @@
         <v>77012132900.53</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
@@ -7453,13 +7393,13 @@
         <v>77012132900.63</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E118" s="19"/>
       <c r="F118" s="19"/>
@@ -7469,13 +7409,13 @@
         <v>77012132900.73</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E119" s="19"/>
       <c r="F119" s="19"/>
@@ -7485,13 +7425,13 @@
         <v>77012132900.83</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" s="19"/>
@@ -7501,13 +7441,13 @@
         <v>77012132900.93</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E121" s="19"/>
       <c r="F121" s="19"/>
@@ -7517,13 +7457,13 @@
         <v>77012132901.03</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E122" s="19"/>
       <c r="F122" s="19"/>
@@ -7533,13 +7473,13 @@
         <v>77012132901.13</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
@@ -7549,13 +7489,13 @@
         <v>77012132901.23</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E124" s="19"/>
       <c r="F124" s="19"/>
@@ -7565,13 +7505,13 @@
         <v>77012132901.33</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E125" s="19"/>
       <c r="F125" s="19"/>
@@ -7581,13 +7521,13 @@
         <v>77012132901.43</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E126" s="19"/>
       <c r="F126" s="19"/>
@@ -7597,13 +7537,13 @@
         <v>77012132901.53</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" s="19"/>
@@ -7613,13 +7553,13 @@
         <v>77012132901.63</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
@@ -7629,13 +7569,13 @@
         <v>77012132901.73</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
@@ -7645,13 +7585,13 @@
         <v>77001142900.13</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E130" s="19"/>
       <c r="F130" s="19"/>
@@ -7661,13 +7601,13 @@
         <v>77001142900.23</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E131" s="19"/>
       <c r="F131" s="19"/>
@@ -7677,13 +7617,13 @@
         <v>77001142900.33</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E132" s="19"/>
       <c r="F132" s="19"/>
@@ -7771,13 +7711,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A69:K74 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Workspace01/Memoria.xlsx
+++ b/Workspace01/Memoria.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="423">
   <si>
     <t>Tamaño Nombre</t>
   </si>
@@ -850,6 +850,24 @@
   </si>
   <si>
     <t>NUMERO DE COPIAS</t>
+  </si>
+  <si>
+    <t>Venta Dinero c</t>
+  </si>
+  <si>
+    <t>Venta Volumen c</t>
+  </si>
+  <si>
+    <t>Venta PPU c</t>
+  </si>
+  <si>
+    <t>Venta Dinero D</t>
+  </si>
+  <si>
+    <t>Venta Volumen D</t>
+  </si>
+  <si>
+    <t>Venta PPU D</t>
   </si>
   <si>
     <t>Seriales Fisicos</t>
@@ -1595,39 +1613,39 @@
   </sheetPr>
   <dimension ref="A1:AG74"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69:K74"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.66836734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.95918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.09183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="5.10204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="5.24489795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="4.95918367346939"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="17" min="13" style="1" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="1" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="28" min="26" style="1" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="33" min="32" style="1" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="17" min="13" style="1" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="5.26530612244898"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="1" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="28" min="26" style="1" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="33" min="32" style="1" width="4.32142857142857"/>
     <col collapsed="false" hidden="false" max="73" min="34" style="1" width="3.51020408163265"/>
     <col collapsed="false" hidden="false" max="74" min="74" style="2" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="75" style="2" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="75" style="2" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5187,20 +5205,6 @@
       <c r="L64" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="M64" s="0"/>
-      <c r="N64" s="0"/>
-      <c r="O64" s="0"/>
-      <c r="P64" s="0"/>
-      <c r="Q64" s="0"/>
-      <c r="R64" s="0"/>
-      <c r="S64" s="0"/>
-      <c r="T64" s="0"/>
-      <c r="U64" s="0"/>
-      <c r="V64" s="0"/>
-      <c r="W64" s="0"/>
-      <c r="X64" s="0"/>
-      <c r="Y64" s="0"/>
-      <c r="Z64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="n">
@@ -5223,20 +5227,6 @@
       <c r="L65" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="M65" s="0"/>
-      <c r="N65" s="0"/>
-      <c r="O65" s="0"/>
-      <c r="P65" s="0"/>
-      <c r="Q65" s="0"/>
-      <c r="R65" s="0"/>
-      <c r="S65" s="0"/>
-      <c r="T65" s="0"/>
-      <c r="U65" s="0"/>
-      <c r="V65" s="0"/>
-      <c r="W65" s="0"/>
-      <c r="X65" s="0"/>
-      <c r="Y65" s="0"/>
-      <c r="Z65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="n">
@@ -5259,20 +5249,6 @@
       <c r="L66" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="M66" s="0"/>
-      <c r="N66" s="0"/>
-      <c r="O66" s="0"/>
-      <c r="P66" s="0"/>
-      <c r="Q66" s="0"/>
-      <c r="R66" s="0"/>
-      <c r="S66" s="0"/>
-      <c r="T66" s="0"/>
-      <c r="U66" s="0"/>
-      <c r="V66" s="0"/>
-      <c r="W66" s="0"/>
-      <c r="X66" s="0"/>
-      <c r="Y66" s="0"/>
-      <c r="Z66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11" t="n">
@@ -5295,20 +5271,6 @@
       <c r="L67" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="M67" s="0"/>
-      <c r="N67" s="0"/>
-      <c r="O67" s="0"/>
-      <c r="P67" s="0"/>
-      <c r="Q67" s="0"/>
-      <c r="R67" s="0"/>
-      <c r="S67" s="0"/>
-      <c r="T67" s="0"/>
-      <c r="U67" s="0"/>
-      <c r="V67" s="0"/>
-      <c r="W67" s="0"/>
-      <c r="X67" s="0"/>
-      <c r="Y67" s="0"/>
-      <c r="Z67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11" t="n">
@@ -5328,33 +5290,38 @@
       <c r="I68" s="12"/>
       <c r="J68" s="0"/>
       <c r="K68" s="0"/>
-      <c r="L68" s="0"/>
-      <c r="M68" s="0"/>
-      <c r="N68" s="0"/>
-      <c r="O68" s="0"/>
-      <c r="P68" s="0"/>
-      <c r="Q68" s="0"/>
-      <c r="R68" s="0"/>
-      <c r="S68" s="0"/>
-      <c r="T68" s="0"/>
-      <c r="U68" s="0"/>
-      <c r="V68" s="0"/>
-      <c r="W68" s="0"/>
-      <c r="X68" s="0"/>
-      <c r="Y68" s="0"/>
-      <c r="Z68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
+      <c r="A69" s="4" t="n">
+        <v>1512</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="K69" s="0"/>
       <c r="L69" s="0"/>
       <c r="M69" s="0"/>
@@ -5373,16 +5340,36 @@
       <c r="Z69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
+      <c r="A70" s="4" t="n">
+        <v>1520</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="K70" s="0"/>
       <c r="L70" s="0"/>
       <c r="M70" s="0"/>
@@ -5401,14 +5388,30 @@
       <c r="Z70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
+      <c r="A71" s="4" t="n">
+        <v>1528</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="I71" s="0"/>
       <c r="J71" s="0"/>
       <c r="K71" s="0"/>
@@ -5429,38 +5432,94 @@
       <c r="Z71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
+      <c r="A72" s="4" t="n">
+        <v>1534</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
+      <c r="A73" s="4" t="n">
+        <v>1542</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
+      <c r="A74" s="4" t="n">
+        <v>1550</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="I74" s="0"/>
       <c r="J74" s="0"/>
     </row>
@@ -5483,37 +5542,38 @@
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A133" activeCellId="1" sqref="A69:K74 A133"/>
+      <selection pane="topLeft" activeCell="A133" activeCellId="0" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5521,10 +5581,10 @@
         <v>77011132700.13</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D2" s="18" t="n">
         <v>18925346</v>
@@ -5537,10 +5597,10 @@
         <v>77011132700.23</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D3" s="18" t="n">
         <v>18925346</v>
@@ -5553,17 +5613,17 @@
         <v>77011132700.33</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D4" s="18" t="n">
         <v>18925346</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="19" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5571,10 +5631,10 @@
         <v>77011132700.43</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D5" s="18" t="n">
         <v>18925346</v>
@@ -5587,10 +5647,10 @@
         <v>77011132700.53</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D6" s="18" t="n">
         <v>18925346</v>
@@ -5603,10 +5663,10 @@
         <v>77011132700.63</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D7" s="18" t="n">
         <v>18925110</v>
@@ -5619,10 +5679,10 @@
         <v>77011132700.73</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D8" s="18" t="n">
         <v>18925110</v>
@@ -5635,10 +5695,10 @@
         <v>77011132700.93</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D9" s="18" t="n">
         <v>18925210</v>
@@ -5651,10 +5711,10 @@
         <v>77011132700.83</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D10" s="18" t="n">
         <v>18925110</v>
@@ -5667,10 +5727,10 @@
         <v>77011132701.03</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D11" s="18" t="n">
         <v>18925110</v>
@@ -5683,10 +5743,10 @@
         <v>77011132800.13</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D12" s="18" t="n">
         <v>18925325</v>
@@ -5699,10 +5759,10 @@
         <v>77011132701.34</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D13" s="18" t="n">
         <v>18928694</v>
@@ -5715,10 +5775,10 @@
         <v>77011132701.44</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D14" s="18" t="n">
         <v>18928695</v>
@@ -5731,10 +5791,10 @@
         <v>77011132701.14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D15" s="18" t="n">
         <v>18928696</v>
@@ -5747,10 +5807,10 @@
         <v>77011132701.24</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D16" s="18" t="n">
         <v>18928697</v>
@@ -5763,10 +5823,10 @@
         <v>77011132701.34</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D17" s="18" t="n">
         <v>18928698</v>
@@ -5779,10 +5839,10 @@
         <v>77011132701.74</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D18" s="18" t="n">
         <v>18928699</v>
@@ -5795,10 +5855,10 @@
         <v>77011132701.64</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D19" s="21" t="n">
         <v>18928700</v>
@@ -5811,10 +5871,10 @@
         <v>77011132701.54</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D20" s="21" t="n">
         <v>18928701</v>
@@ -5827,10 +5887,10 @@
         <v>77011132701.94</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>18928702</v>
@@ -5843,10 +5903,10 @@
         <v>77011132701.84</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D22" s="21" t="n">
         <v>18928703</v>
@@ -5859,13 +5919,13 @@
         <v>77011132900.53</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="19" t="n">
@@ -5877,13 +5937,13 @@
         <v>77011132900.43</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="19" t="n">
@@ -5895,13 +5955,13 @@
         <v>77011132900.23</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="19" t="n">
@@ -5913,13 +5973,13 @@
         <v>77011132900.73</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="19" t="n">
@@ -5931,10 +5991,10 @@
         <v>77011132702.14</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D27" s="18" t="n">
         <v>18928703</v>
@@ -5947,10 +6007,10 @@
         <v>77011132702.34</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D28" s="18" t="n">
         <v>18928804</v>
@@ -5963,10 +6023,10 @@
         <v>77011132702.24</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D29" s="18" t="n">
         <v>18928815</v>
@@ -5979,10 +6039,10 @@
         <v>77011132702.04</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D30" s="18" t="n">
         <v>18928826</v>
@@ -5995,10 +6055,10 @@
         <v>77011132702.44</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D31" s="18" t="n">
         <v>18928927</v>
@@ -6011,10 +6071,10 @@
         <v>77011132900.53</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D32" s="18" t="n">
         <v>18927928</v>
@@ -6027,10 +6087,10 @@
         <v>77011132900.33</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D33" s="18" t="n">
         <v>18927929</v>
@@ -6043,10 +6103,10 @@
         <v>77011132900.63</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D34" s="18" t="n">
         <v>18927930</v>
@@ -6059,10 +6119,10 @@
         <v>77011132800.13</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D35" s="18" t="n">
         <v>18927931</v>
@@ -6075,10 +6135,10 @@
         <v>77012132700.12</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D36" s="18" t="n">
         <v>18927932</v>
@@ -6091,10 +6151,10 @@
         <v>77012132700.22</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D37" s="18" t="n">
         <v>18927933</v>
@@ -6107,10 +6167,10 @@
         <v>77012132700.32</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D38" s="18" t="n">
         <v>18927934</v>
@@ -6123,10 +6183,10 @@
         <v>77012132700.42</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D39" s="18" t="n">
         <v>18927935</v>
@@ -6139,10 +6199,10 @@
         <v>77012132700.11</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D40" s="18" t="n">
         <v>18927936</v>
@@ -6155,10 +6215,10 @@
         <v>77012132700.21</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D41" s="18" t="n">
         <v>18927937</v>
@@ -6171,10 +6231,10 @@
         <v>77012132700.31</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D42" s="18" t="n">
         <v>18927938</v>
@@ -6187,10 +6247,10 @@
         <v>77012132700.41</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D43" s="18" t="n">
         <v>18927939</v>
@@ -6203,10 +6263,10 @@
         <v>77012132700.51</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D44" s="18" t="n">
         <v>18927940</v>
@@ -6219,10 +6279,10 @@
         <v>77012132700.61</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D45" s="18" t="n">
         <v>18927941</v>
@@ -6235,10 +6295,10 @@
         <v>77012132700.71</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D46" s="18" t="n">
         <v>18927942</v>
@@ -6251,10 +6311,10 @@
         <v>77012132700.81</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D47" s="18" t="n">
         <v>18927943</v>
@@ -6267,10 +6327,10 @@
         <v>77012132700.91</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D48" s="18" t="n">
         <v>18927944</v>
@@ -6283,13 +6343,13 @@
         <v>77012132900.32</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="19" t="n">
@@ -6301,13 +6361,13 @@
         <v>77012132900.22</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="19" t="n">
@@ -6319,13 +6379,13 @@
         <v>77012132900.12</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="19" t="n">
@@ -6337,10 +6397,10 @@
         <v>77012132701.01</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D52" s="18" t="n">
         <v>18927945</v>
@@ -6353,10 +6413,10 @@
         <v>77012132701.11</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D53" s="18" t="n">
         <v>18927946</v>
@@ -6369,10 +6429,10 @@
         <v>77012132701.21</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D54" s="18" t="n">
         <v>18927947</v>
@@ -6385,10 +6445,10 @@
         <v>77012132701.31</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D55" s="18" t="n">
         <v>18927948</v>
@@ -6401,10 +6461,10 @@
         <v>77012132701.41</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D56" s="18" t="n">
         <v>18927949</v>
@@ -6417,10 +6477,10 @@
         <v>77012132701.51</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D57" s="18" t="n">
         <v>18927950</v>
@@ -6433,10 +6493,10 @@
         <v>77012132701.61</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D58" s="18" t="n">
         <v>18927951</v>
@@ -6449,10 +6509,10 @@
         <v>77012132701.71</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D59" s="18" t="n">
         <v>18927952</v>
@@ -6465,10 +6525,10 @@
         <v>77012132701.81</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D60" s="18" t="n">
         <v>18927953</v>
@@ -6481,10 +6541,10 @@
         <v>77012132701.91</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D61" s="18" t="n">
         <v>18927954</v>
@@ -6497,10 +6557,10 @@
         <v>77012132702.01</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D62" s="18" t="n">
         <v>18927955</v>
@@ -6513,10 +6573,10 @@
         <v>77012132702.11</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D63" s="18" t="n">
         <v>18927956</v>
@@ -6529,10 +6589,10 @@
         <v>77012132702.21</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D64" s="18" t="n">
         <v>18927957</v>
@@ -6545,10 +6605,10 @@
         <v>77012132702.31</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D65" s="18" t="n">
         <v>18927958</v>
@@ -6561,10 +6621,10 @@
         <v>77012132702.41</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D66" s="18" t="n">
         <v>18927959</v>
@@ -6577,10 +6637,10 @@
         <v>77012132702.51</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D67" s="18" t="n">
         <v>18927960</v>
@@ -6593,10 +6653,10 @@
         <v>77012132702.61</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D68" s="18" t="n">
         <v>18927961</v>
@@ -6609,10 +6669,10 @@
         <v>77012132702.71</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D69" s="18" t="n">
         <v>18927962</v>
@@ -6625,10 +6685,10 @@
         <v>77012132702.81</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D70" s="18" t="n">
         <v>18927963</v>
@@ -6641,10 +6701,10 @@
         <v>77012132702.91</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D71" s="18" t="n">
         <v>18927964</v>
@@ -6657,10 +6717,10 @@
         <v>77012132703.01</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D72" s="18" t="n">
         <v>18927965</v>
@@ -6673,10 +6733,10 @@
         <v>77012132703.11</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D73" s="18" t="n">
         <v>18927966</v>
@@ -6689,10 +6749,10 @@
         <v>77012132703.21</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D74" s="18" t="n">
         <v>18927967</v>
@@ -6705,10 +6765,10 @@
         <v>77012132703.31</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D75" s="18" t="n">
         <v>18927968</v>
@@ -6721,10 +6781,10 @@
         <v>77012132703.41</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D76" s="18" t="n">
         <v>18927969</v>
@@ -6737,10 +6797,10 @@
         <v>77012132703.51</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D77" s="18" t="n">
         <v>18927970</v>
@@ -6753,10 +6813,10 @@
         <v>77012132703.61</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D78" s="18" t="n">
         <v>18927971</v>
@@ -6769,10 +6829,10 @@
         <v>77012132703.71</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D79" s="18" t="n">
         <v>18927972</v>
@@ -6785,10 +6845,10 @@
         <v>77012132703.81</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D80" s="18" t="n">
         <v>18927973</v>
@@ -6801,10 +6861,10 @@
         <v>77012132703.91</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D81" s="18" t="n">
         <v>18927974</v>
@@ -6817,10 +6877,10 @@
         <v>77012132800.13</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D82" s="21" t="n">
         <v>18927975</v>
@@ -6833,10 +6893,10 @@
         <v>77012132800.23</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D83" s="21" t="n">
         <v>18927976</v>
@@ -6849,10 +6909,10 @@
         <v>77012132800.33</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D84" s="21" t="n">
         <v>18927977</v>
@@ -6865,10 +6925,10 @@
         <v>77012132800.43</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D85" s="21" t="n">
         <v>18927978</v>
@@ -6881,10 +6941,10 @@
         <v>77012132800.53</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D86" s="21" t="n">
         <v>18927979</v>
@@ -6897,10 +6957,10 @@
         <v>77012132800.63</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D87" s="21" t="n">
         <v>18927980</v>
@@ -6913,10 +6973,10 @@
         <v>77012132800.73</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D88" s="21" t="n">
         <v>18927981</v>
@@ -6929,10 +6989,10 @@
         <v>77012132800.83</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D89" s="21" t="n">
         <v>18927982</v>
@@ -6945,10 +7005,10 @@
         <v>77012132800.93</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D90" s="21" t="n">
         <v>18927983</v>
@@ -6961,10 +7021,10 @@
         <v>77012132801.03</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D91" s="21" t="n">
         <v>18927984</v>
@@ -6977,10 +7037,10 @@
         <v>77012132801.13</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D92" s="21" t="n">
         <v>18927985</v>
@@ -6993,10 +7053,10 @@
         <v>77012132704.01</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D93" s="21" t="n">
         <v>18927986</v>
@@ -7009,10 +7069,10 @@
         <v>77012132704.11</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D94" s="21" t="n">
         <v>18927987</v>
@@ -7025,10 +7085,10 @@
         <v>77012132704.21</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D95" s="21" t="n">
         <v>18927988</v>
@@ -7041,10 +7101,10 @@
         <v>77012132704.31</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D96" s="21" t="n">
         <v>18927989</v>
@@ -7057,10 +7117,10 @@
         <v>77012132704.41</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D97" s="21" t="n">
         <v>18927991</v>
@@ -7073,10 +7133,10 @@
         <v>77012132704.51</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D98" s="21" t="n">
         <v>18927990</v>
@@ -7089,10 +7149,10 @@
         <v>77012132704.61</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D99" s="21" t="n">
         <v>18927992</v>
@@ -7105,10 +7165,10 @@
         <v>77012132704.71</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D100" s="21" t="n">
         <v>18927993</v>
@@ -7121,10 +7181,10 @@
         <v>77012132704.81</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D101" s="21" t="n">
         <v>18927994</v>
@@ -7137,10 +7197,10 @@
         <v>77012132704.91</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D102" s="21" t="n">
         <v>18927995</v>
@@ -7153,10 +7213,10 @@
         <v>77012132705.01</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D103" s="21" t="n">
         <v>18927996</v>
@@ -7169,10 +7229,10 @@
         <v>77012132705.11</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D104" s="21" t="n">
         <v>18927997</v>
@@ -7185,10 +7245,10 @@
         <v>77012132705.21</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D105" s="21" t="n">
         <v>18927998</v>
@@ -7201,10 +7261,10 @@
         <v>77012132705.31</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D106" s="21" t="n">
         <v>18927999</v>
@@ -7217,10 +7277,10 @@
         <v>77012132705.41</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D107" s="21" t="n">
         <v>18928000</v>
@@ -7233,10 +7293,10 @@
         <v>77012132705.51</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D108" s="21" t="n">
         <v>18928001</v>
@@ -7249,10 +7309,10 @@
         <v>77012132705.61</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D109" s="21" t="n">
         <v>18928002</v>
@@ -7265,10 +7325,10 @@
         <v>77012132705.71</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D110" s="21" t="n">
         <v>18928003</v>
@@ -7281,10 +7341,10 @@
         <v>77012132705.81</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D111" s="21" t="n">
         <v>18928004</v>
@@ -7297,10 +7357,10 @@
         <v>77012132705.91</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D112" s="21" t="n">
         <v>18928005</v>
@@ -7313,13 +7373,13 @@
         <v>77012132900.13</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E113" s="19"/>
       <c r="F113" s="19"/>
@@ -7329,13 +7389,13 @@
         <v>77012132900.23</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E114" s="19"/>
       <c r="F114" s="19"/>
@@ -7345,13 +7405,13 @@
         <v>77012132900.33</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
@@ -7361,13 +7421,13 @@
         <v>77012132900.43</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
@@ -7377,13 +7437,13 @@
         <v>77012132900.53</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
@@ -7393,13 +7453,13 @@
         <v>77012132900.63</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E118" s="19"/>
       <c r="F118" s="19"/>
@@ -7409,13 +7469,13 @@
         <v>77012132900.73</v>
       </c>
       <c r="B119" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D119" s="23" t="s">
         <v>403</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="D119" s="23" t="s">
-        <v>397</v>
       </c>
       <c r="E119" s="19"/>
       <c r="F119" s="19"/>
@@ -7425,13 +7485,13 @@
         <v>77012132900.83</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" s="19"/>
@@ -7441,13 +7501,13 @@
         <v>77012132900.93</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E121" s="19"/>
       <c r="F121" s="19"/>
@@ -7457,13 +7517,13 @@
         <v>77012132901.03</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E122" s="19"/>
       <c r="F122" s="19"/>
@@ -7473,13 +7533,13 @@
         <v>77012132901.13</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
@@ -7489,13 +7549,13 @@
         <v>77012132901.23</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E124" s="19"/>
       <c r="F124" s="19"/>
@@ -7505,13 +7565,13 @@
         <v>77012132901.33</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E125" s="19"/>
       <c r="F125" s="19"/>
@@ -7521,13 +7581,13 @@
         <v>77012132901.43</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E126" s="19"/>
       <c r="F126" s="19"/>
@@ -7537,13 +7597,13 @@
         <v>77012132901.53</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" s="19"/>
@@ -7553,13 +7613,13 @@
         <v>77012132901.63</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
@@ -7569,13 +7629,13 @@
         <v>77012132901.73</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
@@ -7585,13 +7645,13 @@
         <v>77001142900.13</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E130" s="19"/>
       <c r="F130" s="19"/>
@@ -7601,13 +7661,13 @@
         <v>77001142900.23</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E131" s="19"/>
       <c r="F131" s="19"/>
@@ -7617,13 +7677,13 @@
         <v>77001142900.33</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E132" s="19"/>
       <c r="F132" s="19"/>
@@ -7711,10 +7771,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A69:K74 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
